--- a/trunk/DAIIA/HWs/documents/hw2/q3.xlsx
+++ b/trunk/DAIIA/HWs/documents/hw2/q3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>high quality</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>manufacturing</t>
+  </si>
+  <si>
+    <t>Buy, high price</t>
+  </si>
+  <si>
+    <t>Buy, low price</t>
+  </si>
+  <si>
+    <t>Not buy, high price</t>
+  </si>
+  <si>
+    <t>Not buy, low price</t>
+  </si>
+  <si>
+    <t>High quality</t>
+  </si>
+  <si>
+    <t>Low quality</t>
   </si>
 </sst>
 </file>
@@ -164,23 +182,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -207,6 +243,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,36 +577,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
@@ -676,7 +739,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -685,182 +748,239 @@
       <c r="A1" s="12"/>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="D1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="4"/>
+      <c r="A4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="6">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="6">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="8"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="8">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="6">
+        <v>4</v>
+      </c>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="8">
+        <v>17</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="4"/>
+      <c r="A10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4">
+        <v>-3</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4">
+        <v>-1</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="8"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="4"/>
+      <c r="A13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4">
+        <v>-3</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="8"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="8">
+        <v>-4</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="8">
+        <v>2</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A13:C15"/>
+    <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="G1:I3"/>
     <mergeCell ref="A4:C6"/>
     <mergeCell ref="A10:C12"/>
     <mergeCell ref="A7:C9"/>
-    <mergeCell ref="A13:C15"/>
-    <mergeCell ref="A1:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
